--- a/pred_ohlcv/54_21/2020-01-21 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 IPX ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-70579.93876877202</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-65482.85166877202</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-78501.63226877202</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-74240.69596877202</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-74240.69596877202</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-76340.03516877202</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-81533.40436877204</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-84332.52326877204</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-82233.18406877204</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-85738.80326877204</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-88604.38386877204</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-87904.60416877204</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-82918.37266877205</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-77102.27746877205</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-74303.15856877205</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-61949.55715284206</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-56291.91815284205</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-42183.46005284206</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-28476.65775284206</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-16206.46364663106</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18328.09154663106</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-10744.02336566306</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-10044.24366566306</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3852.15883443406</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-8142.30913443406</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3855.47873443406</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5989.56143443406</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4590.00193443406</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4590.00193443406</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-32104.92629620908</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-31405.14659620908</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>49945.20880379094</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>394324.011140541</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>397993.577989618</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>397993.577989618</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>397993.577989618</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>421755.394289618</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>452952.719789618</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>448656.581289618</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>442636.804289618</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>447849.032689618</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>458723.841989618</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>456595.004389618</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>426052.937589618</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>423953.598389618</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>427452.4970896181</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>423953.598389618</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>423953.598389618</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>415542.961089618</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>394381.890589618</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>396481.229789618</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>396481.229789618</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>396481.229789618</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1419718.646658116</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1668777.676359699</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1414089.391663775</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1604229.325863775</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2243787.261263775</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2453307.804563775</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2196134.208856113</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2312202.987856113</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2384687.702456113</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2765064.400856113</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3442529.815992824</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3753655.828422548</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4035247.039955725</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3703558.048592404</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>4168624.137942473</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4176010.09610845</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3923510.37740845</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4019574.653508449</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>4029495.073697976</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4134835.200606626</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>3867203.350006626</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>3914296.559306626</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>3917031.645406626</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>3794421.679206626</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 IPX ohlcv.xlsx
@@ -9778,7 +9778,7 @@
         <v>49945.20880379094</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>62842.67110379094</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1419718.646658116</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1668777.676359699</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1414089.391663775</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1604229.325863775</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2243787.261263775</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2453307.804563775</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2196134.208856113</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2312202.987856113</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2384687.702456113</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2765064.400856113</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3442529.815992824</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3753655.828422548</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3816032.157682352</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4176010.09610845</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>4065279.41760845</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3923510.37740845</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3877915.989108449</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4019574.653508449</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4168793.583999658</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>4029495.073697976</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4134835.200606626</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
